--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474245.112117209</v>
+        <v>3471993.032406001</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67.37512149318727</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>103.9069048230619</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247945</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107971</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>250.8270402093353</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.4503987265507</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>124.5263082584371</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>251.1382003403126</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>40.12741312164749</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939493</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.40766581472943</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056947</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042095</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523133</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1311.90978785544</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392149</v>
+        <v>1311.90978785544</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324644</v>
+        <v>1311.90978785544</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4865620565176</v>
+        <v>926.1215352571953</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999837</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387324</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332769</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601619</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.02130239278</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064754</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757143</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757143</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452403</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1758.295537883726</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C5" t="n">
-        <v>1389.333020943314</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D5" t="n">
-        <v>1031.067322336564</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="E5" t="n">
-        <v>645.2790697383193</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>234.2931649487118</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.034709923659</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>2144.895377947847</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955492</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278978</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211473</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>125.022403822903</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0769030736995</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0448569591001</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>107.0448569591001</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492417</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715147</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244625</v>
@@ -26326,16 +26326,16 @@
         <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132554</v>
@@ -26344,13 +26344,13 @@
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405238</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685763</v>
+        <v>-770811.7932685772</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.952459017</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590169</v>
       </c>
       <c r="E6" t="n">
-        <v>304029.029110101</v>
+        <v>303994.2911846652</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174561</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174565</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="J6" t="n">
-        <v>411910.2885201789</v>
+        <v>411875.5505947429</v>
       </c>
       <c r="K6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="L6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="M6" t="n">
-        <v>544386.4629819447</v>
+        <v>544351.7250565086</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.490917456</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920206</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>314.5552485790745</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>302.9691409186495</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.074784788419493e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>35.38479799627763</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.479971345711</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>286.3954173950164</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754814</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.38479799627842</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>1.449516651278465</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790741</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.3019895743077</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
